--- a/Data_frame/balancos_definitivos/GOLL4.xlsx
+++ b/Data_frame/balancos_definitivos/GOLL4.xlsx
@@ -894,7 +894,7 @@
         <v>11569160.192</v>
       </c>
       <c r="AY2" t="n">
-        <v>17466019.84</v>
+        <v>12955074.56</v>
       </c>
       <c r="AZ2" t="n">
         <v>14402342.912</v>
@@ -1081,7 +1081,7 @@
         <v>2570160.896</v>
       </c>
       <c r="AY3" t="n">
-        <v>3660283.904</v>
+        <v>2768220.928</v>
       </c>
       <c r="AZ3" t="n">
         <v>2688040.96</v>
@@ -1268,7 +1268,7 @@
         <v>760268.992</v>
       </c>
       <c r="AY4" t="n">
-        <v>500673.984</v>
+        <v>1043358.016</v>
       </c>
       <c r="AZ4" t="n">
         <v>486257.984</v>
@@ -1455,7 +1455,7 @@
         <v>22838</v>
       </c>
       <c r="AY5" t="n">
-        <v>1332315.008</v>
+        <v>89943</v>
       </c>
       <c r="AZ5" t="n">
         <v>291363.008</v>
@@ -1642,7 +1642,7 @@
         <v>717408</v>
       </c>
       <c r="AY6" t="n">
-        <v>655553.9840000001</v>
+        <v>638864</v>
       </c>
       <c r="AZ6" t="n">
         <v>850683.008</v>
@@ -1829,7 +1829,7 @@
         <v>212814</v>
       </c>
       <c r="AY7" t="n">
-        <v>166026</v>
+        <v>239000.992</v>
       </c>
       <c r="AZ7" t="n">
         <v>269584.992</v>
@@ -2203,7 +2203,7 @@
         <v>265356.992</v>
       </c>
       <c r="AY9" t="n">
-        <v>181100</v>
+        <v>157676.992</v>
       </c>
       <c r="AZ9" t="n">
         <v>176391.008</v>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="AY10" t="n">
-        <v>260414</v>
+        <v>0</v>
       </c>
       <c r="AZ10" t="n">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>591475.008</v>
       </c>
       <c r="AY11" t="n">
-        <v>564201.024</v>
+        <v>599377.9840000001</v>
       </c>
       <c r="AZ11" t="n">
         <v>613761.024</v>
@@ -2764,7 +2764,7 @@
         <v>2261752.064</v>
       </c>
       <c r="AY12" t="n">
-        <v>2654440.96</v>
+        <v>2408293.888</v>
       </c>
       <c r="AZ12" t="n">
         <v>2215922.944</v>
@@ -2951,7 +2951,7 @@
         <v>168</v>
       </c>
       <c r="AY13" t="n">
-        <v>244844</v>
+        <v>0</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="AZ14" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>53772</v>
       </c>
       <c r="AY19" t="n">
-        <v>485849.984</v>
+        <v>53541</v>
       </c>
       <c r="AZ19" t="n">
         <v>75799</v>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="AY20" t="n">
-        <v>217340</v>
+        <v>0</v>
       </c>
       <c r="AZ20" t="n">
         <v>0</v>
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="AY22" t="n">
-        <v>7270</v>
+        <v>0</v>
       </c>
       <c r="AZ22" t="n">
         <v>0</v>
@@ -4821,7 +4821,7 @@
         <v>4979649.024</v>
       </c>
       <c r="AY23" t="n">
-        <v>3087813.888</v>
+        <v>5968074.24</v>
       </c>
       <c r="AZ23" t="n">
         <v>7675169.792</v>
@@ -5008,7 +5008,7 @@
         <v>1757597.952</v>
       </c>
       <c r="AY24" t="n">
-        <v>8056211.968</v>
+        <v>1810486.016</v>
       </c>
       <c r="AZ24" t="n">
         <v>1823208.96</v>
@@ -5382,7 +5382,7 @@
         <v>11569160.192</v>
       </c>
       <c r="AY26" t="n">
-        <v>17466019.84</v>
+        <v>12955074.56</v>
       </c>
       <c r="AZ26" t="n">
         <v>14402342.912</v>
@@ -5569,7 +5569,7 @@
         <v>10518174.72</v>
       </c>
       <c r="AY27" t="n">
-        <v>3138899.968</v>
+        <v>11214551.04</v>
       </c>
       <c r="AZ27" t="n">
         <v>11081793.536</v>
@@ -5756,7 +5756,7 @@
         <v>351203.008</v>
       </c>
       <c r="AY28" t="n">
-        <v>321814.016</v>
+        <v>373416.992</v>
       </c>
       <c r="AZ28" t="n">
         <v>374576</v>
@@ -5943,7 +5943,7 @@
         <v>1562946.048</v>
       </c>
       <c r="AY29" t="n">
-        <v>179302</v>
+        <v>1773283.968</v>
       </c>
       <c r="AZ29" t="n">
         <v>1820056.064</v>
@@ -6130,7 +6130,7 @@
         <v>61279</v>
       </c>
       <c r="AY30" t="n">
-        <v>606673.024</v>
+        <v>61876</v>
       </c>
       <c r="AZ30" t="n">
         <v>122036</v>
@@ -6317,7 +6317,7 @@
         <v>1773004.032</v>
       </c>
       <c r="AY31" t="n">
-        <v>233806</v>
+        <v>1848112</v>
       </c>
       <c r="AZ31" t="n">
         <v>634614.0159999999</v>
@@ -6878,7 +6878,7 @@
         <v>6517697.024</v>
       </c>
       <c r="AY34" t="n">
-        <v>246934</v>
+        <v>6827213.824</v>
       </c>
       <c r="AZ34" t="n">
         <v>7653188.096</v>
@@ -7065,7 +7065,7 @@
         <v>252046</v>
       </c>
       <c r="AY35" t="n">
-        <v>1550370.944</v>
+        <v>330648</v>
       </c>
       <c r="AZ35" t="n">
         <v>477324</v>
@@ -7439,7 +7439,7 @@
         <v>16797284.352</v>
       </c>
       <c r="AY37" t="n">
-        <v>7210055.168</v>
+        <v>20020137.984</v>
       </c>
       <c r="AZ37" t="n">
         <v>24374228.992</v>
@@ -7626,7 +7626,7 @@
         <v>8521006.08</v>
       </c>
       <c r="AY38" t="n">
-        <v>3545736.96</v>
+        <v>9950574.592</v>
       </c>
       <c r="AZ38" t="n">
         <v>11265416.192</v>
@@ -8000,7 +8000,7 @@
         <v>6705595.904</v>
       </c>
       <c r="AY40" t="n">
-        <v>1743736.96</v>
+        <v>8302731.776</v>
       </c>
       <c r="AZ40" t="n">
         <v>9998401.536</v>
@@ -8187,7 +8187,7 @@
         <v>206695.008</v>
       </c>
       <c r="AY41" t="n">
-        <v>470774.016</v>
+        <v>10211</v>
       </c>
       <c r="AZ41" t="n">
         <v>411</v>
@@ -8561,7 +8561,7 @@
         <v>1363987.968</v>
       </c>
       <c r="AY43" t="n">
-        <v>1449806.976</v>
+        <v>1756620.032</v>
       </c>
       <c r="AZ43" t="n">
         <v>3109998.08</v>
@@ -9122,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="AY46" t="n">
-        <v>984</v>
+        <v>0</v>
       </c>
       <c r="AZ46" t="n">
         <v>0</v>
@@ -9309,7 +9309,7 @@
         <v>-15746299.904</v>
       </c>
       <c r="AY47" t="n">
-        <v>7116082.24</v>
+        <v>-18279614.464</v>
       </c>
       <c r="AZ47" t="n">
         <v>-21053677.568</v>
@@ -9496,7 +9496,7 @@
         <v>4041423.872</v>
       </c>
       <c r="AY48" t="n">
-        <v>5808608.768</v>
+        <v>4041435.904</v>
       </c>
       <c r="AZ48" t="n">
         <v>4039115.008</v>
@@ -9683,7 +9683,7 @@
         <v>154166</v>
       </c>
       <c r="AY49" t="n">
-        <v>52131</v>
+        <v>160744</v>
       </c>
       <c r="AZ49" t="n">
         <v>167196.992</v>
@@ -10057,7 +10057,7 @@
         <v>0</v>
       </c>
       <c r="AY51" t="n">
-        <v>1421938.944</v>
+        <v>0</v>
       </c>
       <c r="AZ51" t="n">
         <v>0</v>
@@ -10244,7 +10244,7 @@
         <v>-18870859.776</v>
       </c>
       <c r="AY52" t="n">
-        <v>-166592</v>
+        <v>-21397583.872</v>
       </c>
       <c r="AZ52" t="n">
         <v>-24206907.392</v>
@@ -10431,7 +10431,7 @@
         <v>-1071030.016</v>
       </c>
       <c r="AY53" t="n">
-        <v>0</v>
+        <v>-1085273.984</v>
       </c>
       <c r="AZ53" t="n">
         <v>-1054113.984</v>
@@ -10805,7 +10805,7 @@
         <v>0</v>
       </c>
       <c r="AY55" t="n">
-        <v>-5</v>
+        <v>1065</v>
       </c>
       <c r="AZ55" t="n">
         <v>1032</v>
@@ -11333,7 +11333,7 @@
         <v>1028371.968</v>
       </c>
       <c r="AY59" t="n">
-        <v>3220485.12</v>
+        <v>2922333.952</v>
       </c>
       <c r="AZ59" t="n">
         <v>3220452.096</v>
@@ -11520,7 +11520,7 @@
         <v>-1243943.04</v>
       </c>
       <c r="AY60" t="n">
-        <v>-2706565.12</v>
+        <v>-3873302.528</v>
       </c>
       <c r="AZ60" t="n">
         <v>-2613500.928</v>
@@ -11707,7 +11707,7 @@
         <v>-215571.008</v>
       </c>
       <c r="AY61" t="n">
-        <v>513920</v>
+        <v>-950969.088</v>
       </c>
       <c r="AZ61" t="n">
         <v>606950.976</v>
@@ -11894,7 +11894,7 @@
         <v>-101046</v>
       </c>
       <c r="AY62" t="n">
-        <v>-179590</v>
+        <v>-228828.96</v>
       </c>
       <c r="AZ62" t="n">
         <v>-227124</v>
@@ -12081,7 +12081,7 @@
         <v>-432030.016</v>
       </c>
       <c r="AY63" t="n">
-        <v>-288960</v>
+        <v>-603430.0159999999</v>
       </c>
       <c r="AZ63" t="n">
         <v>-365448</v>
@@ -12443,7 +12443,7 @@
         <v>0</v>
       </c>
       <c r="AY65" t="n">
-        <v>7218</v>
+        <v>-15678</v>
       </c>
       <c r="AZ65" t="n">
         <v>0</v>
@@ -12630,7 +12630,7 @@
         <v>-61602</v>
       </c>
       <c r="AY66" t="n">
-        <v>-29566</v>
+        <v>49516</v>
       </c>
       <c r="AZ66" t="n">
         <v>62762</v>
@@ -13004,7 +13004,7 @@
         <v>1479918.976</v>
       </c>
       <c r="AY68" t="n">
-        <v>-92536</v>
+        <v>-1092075.008</v>
       </c>
       <c r="AZ68" t="n">
         <v>2660864</v>
@@ -13191,7 +13191,7 @@
         <v>1958776.064</v>
       </c>
       <c r="AY69" t="n">
-        <v>65748</v>
+        <v>-446390.08</v>
       </c>
       <c r="AZ69" t="n">
         <v>12590</v>
@@ -13378,7 +13378,7 @@
         <v>-478856.992</v>
       </c>
       <c r="AY70" t="n">
-        <v>-158284</v>
+        <v>-645685.12</v>
       </c>
       <c r="AZ70" t="n">
         <v>2648273.92</v>
@@ -13796,7 +13796,7 @@
         <v>669670.0159999999</v>
       </c>
       <c r="AY74" t="n">
-        <v>-69514</v>
+        <v>-2841464.832</v>
       </c>
       <c r="AZ74" t="n">
         <v>2738004.992</v>
@@ -13983,7 +13983,7 @@
         <v>-16757</v>
       </c>
       <c r="AY75" t="n">
-        <v>-15520</v>
+        <v>82</v>
       </c>
       <c r="AZ75" t="n">
         <v>-124976</v>
@@ -14170,7 +14170,7 @@
         <v>5122</v>
       </c>
       <c r="AY76" t="n">
-        <v>-5696</v>
+        <v>32060</v>
       </c>
       <c r="AZ76" t="n">
         <v>-5444</v>
@@ -14511,7 +14511,7 @@
         <v>-15122</v>
       </c>
       <c r="AY79" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AZ79" t="n">
         <v>0</v>
@@ -14698,7 +14698,7 @@
         <v>642913.024</v>
       </c>
       <c r="AY80" t="n">
-        <v>-90684</v>
+        <v>-2809322.752</v>
       </c>
       <c r="AZ80" t="n">
         <v>2607585.024</v>
